--- a/500all/speech_level/speeches_CHRG-114hhrg97282.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97282.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="544">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Whitfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitfield. I would like to call the hearing to order this morning. The title today is the hearing on the Quadrennial Energy Review and Related Discussion Drafts, including Title III, Energy Diplomacy. We will have two panels of witnesses this morning. And, of course, on the first panel we have our Secretary of Energy, Mr. Moniz, who is no stranger to this committee or to Congress. So we appreciate him being with us very much, and look forward to his opening statement. And then we will have some questions relating to his testimony, as well as other issues.    And at this time, I would like to recognize myself for 5 minutes for an opening statement.    Everyone is very much aware that this subcommittee and the Congress has been working on a bipartisan energy bill for several months now. Many people are even asking, not surprisingly, is there enough common ground between our efforts and the Obama Administration to enact meaningful energy legislation. And I do believe that this question was answered with a clear yes when the Department of Energy's first installment of its Quadrennial Energy Review was released last April. This detailed study focuses on the infrastructure implications of America's new energy boom, and many of its recommendations overlap with provisions of our draft energy bill.    And so we are excited that Mr. Moniz is here today, so that we can explore the perspective of the Department of Energy as the country makes dramatic changes in its energy distribution, production, transmission system. We have a lot of infrastructure needs. We are focusing on the diplomatic diplomacy aspects of energy, which is becoming more and more important to our friends in the European Union, who find themselves reliant on natural gas coming from Russia. And so we have many opportunities in the United States to come forth with a good energy policy. And I think that most of the provisions that we are focused on in this energy bill, democrats and republicans agree that they need to be addressed, and one of the biggest is infrastructure needs, and trying to improve the permitting process, for an example.    So I look forward to the testimony of all of our witnesses today. And we have a real opportunity here and we don't want to drop this ball, so we are getting close to the end of drafting this legislation, coming up with a final product, and we look forward to move it in a meaningful way.</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>400414</t>
   </si>
   <si>
-    <t>Fred Upton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Upton. Well, thank you, Mr. Chairman. I just want to say in response to Mr. Rush's comments, I look forward to working with him and Mr. Pallone, and all of our members on both sides of the aisle, to do this right. And appreciate those kind words.    We are delighted to welcome back Secretary Moniz to the committee to discuss the first installment of the Quadrennial Energy Review that focused on energy transport and infrastructure; something we need to do. America's energy picture is rapidly changing, and our laws and regulations need to change with it. Longstanding concerns about declining domestic energy output have been erased by rapidly rising oil and natural gas production. 2013 alone, according to the QER, the U.S. added 1.2 million barrels per day of production, a record increase by one country in 1 year. Domestic production of natural gas and related liquids has experienced equally dramatic increases. 2014, the U.S. became the world's number 1 energy-producing nation, and it is time we start acting like it.    Unfortunately, the scarcity mindset is still embedded in our national energy policy. Rising energy production requires more energy infrastructure; what I have called the architecture of abundance. Both the energy legislation and the QER include a number of ideas for upgrading and expanding the Nation's energy infrastructure. And in light of the recent pipeline spill in California, I would add that both aim to ensure that this new infrastructure is built with state-of-the-art technologies that reduce the environmental and safety risks. But our energy abundance can be more than just an economic success story; it can be--it, indeed, can be a foreign policy success story as well. And that is why recently released discussion draft of our energy diplomacy title is so important.    This--the discussion draft builds on the extensive work done by this subcommittee on LNG exports. At numerous hearings over the last couple of years, we heard from many of our allies around the globe who said they would rather get their natural gas from us than the likes of Russia or Iran. That message was underscored last month when I led a high-level delegation to several of our European allies, including Ukraine, and we came away with a profound new understanding of just how vital these partnerships can be. In established parts of the EU, leaders are coming together to promote a unified energy market because of its potential for security, affordability, and innovation. In Ukraine, where the commitment to freedom and democracy is hard-fought each and every day, their energy aspirations are fundamental to their dreams for a peaceful future.    While our discussion draft encourages North American energy cooperation and cross-border infrastructure, opportunities for energy diplomacy extend well beyond our own continent. For example, there is broad recognition that U.S. LNG exports will benefit the U.S. economy, our consumers, and yes, our allies. While the same could be said for oil exports, a statutory ban has prevented us from pursuing these benefits for the last 4 decades. And it is time that Congress considers revising the ban on crude oil exports.    As with natural gas, America now has enough oil production to make increased exports feasible, especially the lighter grades of crude that the QER notes have experienced the most rapid supply increases. Economic and foreign policy experts across the political spectrum believe that expanding the markets for American oil would be a net jobs creator at home, while enhancing our geopolitical influence abroad. And at the same time, reports from the GAO, CBO, and Energy Information Administration all point to reductions in the price of gas as a result of increased oil exports. In other words, oil exports can be a win for the American people and a win for our allies.    The energy sector has been the Nation's most significant job creator in recent years, but with the drop in oil prices, as many as 100,000 energy industry positions have been lost. The case for creating more jobs by expanding the market for American oil is a key reason why oil exports should be on this committee's agenda this year. And while we are not currently considering any such provisions in this pending legislation, I do look forward to working with my good friend, Mr. Barton, and others on both sides of the aisle to ensure that we get the policy right.    I yield back the balance of my time.</t>
   </si>
   <si>
@@ -79,18 +73,12 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Chairman Whitfield and Ranking Member Rush.    Let me begin by welcoming Secretary Moniz back to the committee, and congratulating you on completing the first installment of the Quadrennial Energy Review. It is a truly comprehensive look at our Nation's energy infrastructure, and its recommendations will help us chart a path forward in the rapidly changing energy sector.    This installment relates to the transportation, storage, and distribution of energy. These TS&amp;D connections between suppliers and users can impact our energy reliability and security, and affect our ability to meet environmental and economic goals. TS&amp;D infrastructure is vulnerable to a wide and expanding array of threats from natural disasters to physical and cyberattacks, so it is important we thoroughly understand these vulnerabilities and how to mitigate their impacts. At the same time, its modernization can help achieve meaningful greenhouse gas reductions and other environmental goals, while enhancing safety, security, and reliability. Ultimately, the OER represents the forward-thinking we need to ensure a smarter, more resilient, cost-effective, and environmentally sound energy system for the future. And I look forward to working with you, Mr. Secretary, to translate these important ideas into legislation and law.    I wish I could be as upbeat in discussing the majority's Energy Diplomacy Discussion Draft. Rather than building on the strong relationships with our North American neighbors, the majority has chosen to resurrect controversial legislative proposals that have already drawn democratic concerns and presidential veto threats. For example, the bill would eliminate the current presidential permitting process for liquid and gas pipelines, and electric transmission lines that cross the U.S. border with Mexico and Canada, and it replaces the process with one that effectively rubberstamps permit applications and eliminates any meaningful environmental review.    While it now would only take effect after President Obama leaves office, and specifically excludes the Keystone Pipeline, it still appears to allow TransCanada to avail itself of the new process by reapplying with a revised route. The provision also limits federal approval and environmental review to the small segment of the project that physically crosses the national border. It also creates a rebuttal presumption that these projects are in the public interest; shifting the burden of proof to project opponents. This all but guarantees permit approval, and virtually eliminates the opportunity for protective permit conditions.    The draft bill also recycles LNG export language designed to address nonexistent delays at the Department of Energy. In fact, DOE recently testified, that ``Right now, there are zero applicants sitting in front of us for a decision. The last application that came out of FERC, we turned that around in 1 day.'' Nonetheless, the bill would make changes to an otherwise successful process.    And finally, another provision would create a taskforce, burdening federal energy regulatory actions with additional red tape, and undermining environmental considerations. In fact, it speaks volumes that the very agencies tasked with natural resource and environmental management, like EPA and DOI, are excluded from the taskforce.    So I hope this committee can start to work towards consensus legislation instead of resurrecting problematic issues of the past.    But thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Gentleman yields back.    That concludes the opening statements for today. And, Mr. Secretary, once again, thank you for joining us. We do look forward to your insights on these important issues. And I would like to recognize you for 5 minutes for your opening statement.</t>
   </si>
   <si>
-    <t>Moniz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary Moniz. Well, thank you, Chairman Upton and Whitfield, and Ranking Members Pallone and Rush.</t>
   </si>
   <si>
@@ -208,9 +196,6 @@
     <t>400018</t>
   </si>
   <si>
-    <t>Joe Barton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barton. Well, thank you, Mr. Chairman. And, Mr. Secretary, welcome back.</t>
   </si>
   <si>
@@ -283,9 +268,6 @@
     <t>412189</t>
   </si>
   <si>
-    <t>Jerry McNerney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McNerney. Thank you, Mr. Chairman.    Mr. Secretary, I do appreciate the big effort that went into producing this QER document. Nice work. The document does recommend legislation actions. Would you elaborate on 1 or 2 of the most urgent actions that would be required?</t>
   </si>
   <si>
@@ -337,9 +319,6 @@
     <t>412302</t>
   </si>
   <si>
-    <t>Pete Olson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Olson. I thank the chair. And welcome, Secretary Moniz.    My first question is about the Federal Power Act. Under Section 202(c), DOE, you, can order a power plant to stay running during a grid crisis. In following your order, the plant might squeak past their clean air permits. Unfairly, that plant can be fined and sued by others for doing so. One regulator says go, another says stop. That plant has to decide whether they want to acquiesce in a power shortage, maybe a brownout or blackout, or cut a check, breaking the permit for just a few days, maybe a few hours. I have a bipartisan bill with Representative Doyle and Green to fix this in the energy package we are working on. This is not about a company riding roughshod over environmental laws; we are talking about days or hours in a crisis.    The other week, FERC and NERC endorsed our bill. Your predecessor, Secretary Chu, told me in this committee that he is ``very supportive'' of the idea. The bill has passed this committee three times now, and the whole House twice, in the 112th and 113th Congress.    And so my question to you is, can I count on your support in the 114th Congress, will you be very supportive of the bill like your predecessor?</t>
   </si>
   <si>
@@ -379,9 +358,6 @@
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. Mr. Secretary, you will get an overdose of Texas.    I see my colleague, Joe Barton, is not here, but I don't know if our members heard that his mom passed away last week, and----</t>
   </si>
   <si>
@@ -529,9 +505,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you, Mr. Chairman. Mr. Secretary, welcome.    Your department really was developed and instituted based upon our nuclear heritage, as you know, and also is focused on our nuclear future, and then you have to deal with a lot of legacy issues. That is not really part of the hearing, but the introduction is just to let you know I appreciate the support I receive from your professionals down at Savannah River, which I visited yesterday, and the contractors there, and they took good care of me----</t>
   </si>
   <si>
@@ -613,9 +586,6 @@
     <t>412195</t>
   </si>
   <si>
-    <t>Kathy Castor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Castor. Thank you, Mr. Chairman. Good morning, Mr. Secretary.    I would like you to elaborate a little bit more on the transmission, storage, and distribution, beyond what you have already testified to, because America's energy infrastructure is aging, it is not well-matched with the new sources of supply, it is exposed to increasingly dangerous extreme weather events associated with climate change, such as sea level rise. In my neck of the woods, we are concerned about more intense electrical storms, and then drought and wildfires. And I know you are sensitive to the potential for cyber and physical attacks as well. And part of America's policy right now is to encourage these new clean energy supplies, and greater energy efficiency such as the availability of rooftop solar that holds great promise for powering households and businesses across the country, and our growing energy efficiency sector that will rely on smart meters, a smart grid distributed generation, but these run completely counter to the traditional electric utility model. Now, you have testified already today about, well, energy assurance grants for states. Maybe you need to go into greater detail on the micro grids. I have never heard of a synchrophasor. What else really must we be looking for to modernize America's grid and infrastructure going forward?</t>
   </si>
   <si>
@@ -685,9 +655,6 @@
     <t>400320</t>
   </si>
   <si>
-    <t>Joseph R. Pitts</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pitts. Thank you, Mr. Chairman. Thank you, Mr. Secretary, for coming today.    Chairman Upton mentioned his interest in Ukraine and the meetings over there with the Ukrainian Parliament, the EU, getting resources over there. You said something that you are doing a lot with Ukraine. Would you care to elaborate please?</t>
   </si>
   <si>
@@ -727,9 +694,6 @@
     <t>400062</t>
   </si>
   <si>
-    <t>Lois Capps</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Capps. Thank you, Mr. Chairman, for holding this hearing. And I thank you, Mr. Secretary, for your testimony.    The discussion of our Nation's energy infrastructure is very important, and as is the Administration's work on the Quadrennial Energy Review. I am particularly interested in the pipeline safety aspect of it. Over my years on this committee, I have referenced very many times the Santa Barbara oil spill of 1969. That oil spill had tremendous local and national ramifications, giving birth to our modern environmental movement, in many ways, and changing much of the way our Nation as a whole has viewed the environment and oil development. Sadly, the Santa Barbara community was recently hit with another terrible oil spill along the coast. On May 19, more than 100,000 gallons of crude oil spilled from the ruptured Plains All American Pipeline along the treasured Gaviota Coast just north of Santa Barbara. The oil quickly flowed under the highway, onto the beach, and into the ocean, where the oil slick spread south for miles along the coastline. While the exact causes of this spill are still being investigated, it is already clear that woefully inadequate federal pipeline safety standards have played a significant role. It turns out that the Plains All American Pipeline is the only federally regulated pipeline in Santa Barbara County. It is also the only transmission pipeline in the county that does not have an automatic shutoff valve built into its system, and this is not a coincidence. Every other comparable oil pipeline in Santa Barbara County has an automatic shutoff valve because the county has required it, but the federal Pipeline and Hazardous Material Safety Administration, or PHMSA as it is called, does not make this requirement of pipeline operators. While an automatic shutoff valve may not have prevented this spill, it certainly could have minimized it. Plains was actually allowed to squirrel away tens of millions of dollars into what they called a contingency fund for when their pipeline would inevitably fail, yet they weren't even required to spend a fraction of that amount on installing basic spill prevention technologies. This, to me, defies commonsense, and it cannot be allowed to continue. And this is just one example of lax safety standards. My constituents are understandably angry, and I share their anger. With all due respect for my seatmate, Mr. Green, who appropriately isn't here right now, oil and gas development at its core is dangerous and dirty business. The mere fact that Plains and other companies have oil spill contingency funds shows that there is no such thing as a safe pipeline. Spills do happen, and they will continue to happen as long as we depend on fossil fuel for our energy needs. We obviously cannot end this dependence overnight, but we clearly need to take bigger and bolder actions to achieve the clean energy future that we all know is needed.    Secretary Moniz, I appreciate the President's and your strong commitment to pursuing renewable energy. The objectives of QER are important. We cannot build a clean energy future without modernizing our infrastructure and preparing for new challenges, but we must also do everything in our power to ensure that this infrastructure is as safe as possible. Congress has repeatedly directed PHMSA to strengthen its standards, and yet PHMSA has done very little. The QER specifically mentions a draft PHMSA rule in development that would help strengthen some of these standards, but PHMSA first began taking comment on this rule nearly 5 years ago, and nothing has been published so far. And in 2011, Congress enacted legislation explicitly directing PHMSA to issue a rule requiring automatic shutoff valves on new pipelines by January of last year. Still not even a proposal let alone a final rule. I find this really inexcusable. I know DOE does not have direct control over this agency, Transportation does, or rulemaking, but what is the point of replacing aging pipelines and building new ones if they are all built using ineffective and outdated safety standards? The pipeline that burst in my district was not even 30 years old, so age is clearly not the only factor here.    So, Mr. Secretary, my question for you, and I would appreciate if you can get back to me because I have taken most of this time, but what is the Administration going to do now to ensure--there is a lot of attention focused on this topic, to ensure that a new pipeline infrastructure is as safe as possible?</t>
   </si>
   <si>
@@ -748,9 +712,6 @@
     <t>412256</t>
   </si>
   <si>
-    <t>Robert E. Latta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Latta. Thank you, Mr. Chairman. And, Mr. Secretary, welcome back to the committee. It is always good to have you here.    If I could just follow up what the gentleman from Pennsylvania, Mr. Pitts, was asking, and you mentioned about the swap--the light versus heavy with Mexico. Maybe some folks might not understand why you would have to have a swap. Why is that? That you would have to swap light for heavy crude. Is----</t>
   </si>
   <si>
@@ -820,9 +781,6 @@
     <t>412239</t>
   </si>
   <si>
-    <t>Peter Welch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Welch. OK, thank you very much.    I have one comment and four questions, so I will go lickety-split. And I think I will ask them all four so you can answer them.    The comment, you have been getting praised for being a great Secretary of Energy, and sideline as a nuclear negotiator, but I don't think people know that you do the best imitation of Luis Tiant, his windup, delivery, and pitch. And I think all members should ask for a demonstration. But----</t>
   </si>
   <si>
@@ -850,9 +808,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman. And thank you again for coming before us.    In the last week, during the break, I returned to West Virginia and was on overload of negative information coming at us in West Virginia. The first newspaper I got when I got back there was, dark day for miners. They just announced that 2,268 coalmining jobs were lost. 2,268 families now are looking for jobs as a result of this mining--then soon thereafter we got another power plant closed down, the Kammer Power Plant. Even though FERC has said that--and they have testified before us--the concern that they have is that we are going to have rolling blackouts in the Midwest if we don't start replacing these power plants, but we are continuing to shut these power plants down. And then there was another one that went on to say, just in one community, one small community, they are going to lose $61 million in wages as a result of this.    So I am dealing with all of this crisis. When you add the additional losses, these 2,268, now we are up to--and I believe the chairman mentioned it earlier today, that we have now lost in West Virginia 45 percent of our coalminers are unemployed since 2012. Just in 3 years. Three years 45 percent of our coalminers are looking for work.    Now, last Friday I met with the Coal Association and I could see there, they said there is going to be further contraction as a result of what policies that are happening nationally. So they are very concerned about what is going on with it. This loss of the Kammer and other power plants, it challenges, you well know, the grid stability that we have, this dependability. It also goes beyond that, and that is what about property taxes, what about the local income tax that people are going to pay? You can take away the power plant but now you are affecting the schools, you are affecting how a community operates with this happening.    So my first question of two questions would be to the coal industry to reverse this decline?</t>
   </si>
   <si>
@@ -916,9 +871,6 @@
     <t>400122</t>
   </si>
   <si>
-    <t>Eliot L. Engel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you very much, Mr. Chairman. Secretary Moniz, than you for your testimony today, and thank you for all your good work in so many things. We really appreciate it.    I would like to join everyone in applauding your efforts----</t>
   </si>
   <si>
@@ -952,9 +904,6 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you very much, Mr. Chairman. I do appreciate that.    Let me reference the comments made by Mr. McKinley of West Virginia. We have had hundreds of layoffs in my district alone. Of course, in my neighboring State of West Virginia and Kentucky, there have been thousands, and it has been devastating.    You referenced natural gas in relationship to the closing of some of the coal-fired power plants as one of the factors. Of course, it is one of the factors, but the regulations coming in also, yesterday we closed down the Glen Lyn facility in my district. It was paid for by the ratepayers. Wouldn't cost them any additional. It was only being used at this point for the peak periods. That is now gone. The Clinch River facility in my district had three EGUs, three electric generation power plants. They are converting two of the three over to natural gas, however, the third one is not going to be converted, and the \\2/3\\ that used to be there will produce about \\1/2\\ of the electricity.    I am just concerned that in the peak periods of use, now that they are gone, how are they going to be replaced in southwest Virginia and in other parts of the AEP footprint?</t>
   </si>
   <si>
@@ -979,9 +928,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman. And thank you, Mr. Secretary, for being here with us again today.    At the risk of piling on, I want to associate myself also with the concerns already mentioned regarding the coal industry. My district is a district and a state heavily dependent upon the coal industry, not only for reliable energy, affordable energy, but also the jobs that it represents.    I was on a trip to Europe just a couple of weeks ago, and one of the statements that one of our European colleagues in the energy sector made was that, over the last 20 years or so, they have led America in shutting down much of their coal industry in an effort to reduce their carbon emissions, but some of those European countries, when we ask them what their energy profile looked like, they are returning to a higher percentage of a use of coal. And when I questioned them about that, I said why is that the case and how do you think you are going to be able to reach this 40 percent reduction by 2030, and this official said, look, we have learned, our ratepayers, our businesses and our residential customers, have said they are no longer willing to pay the exorbitant high prices for energy. The idea is you make coal so expensive by taxing the carbon emissions that renewables and other alternative forms of energy are more economically attractive. They are going back to coal. I don't know why America, Mr. Secretary, why we have to learn this lesson the hard way; that coal still provides the most reliable, affordable energy on the planet.    And so let me get off of this subject because I have some others I want to talk to you about. You expressed a willingness to come to West Virginia with Senator Manchin and Representative McKinley. Can you swing through Ohio at the same time----</t>
   </si>
   <si>
@@ -1045,9 +991,6 @@
     <t>412445</t>
   </si>
   <si>
-    <t>Billy Long</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Long. Thank you, Mr. Chairman.    And, Mr. Secretary, the discussion draft provides the Department of Energy with some new responsibilities beyond your current mission. For example, we direct the department to study the feasibility of establishing a federal strategic transformer reserve, and arm the Department of Energy with new authority to address certain grid security emergencies, which I think is foremost in everyone's mind as far as grid security. Do you believe the Department of Energy has the expertise and capability to meet these new duties?</t>
   </si>
   <si>
@@ -1108,9 +1051,6 @@
     <t>412480</t>
   </si>
   <si>
-    <t>Bill Flores</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Flores. Well, thank you.</t>
   </si>
   <si>
@@ -1171,9 +1111,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman. And, Secretary, thank you for being with us again today. I believe this is the second time you have been in front of this panel.</t>
   </si>
   <si>
@@ -1315,9 +1252,6 @@
     <t>412431</t>
   </si>
   <si>
-    <t>Mike Pompeo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pompeo. Great, thank you, Mr. Chairman. And thank you for your patience today. You have been with us a long time. We are getting toward the end and so a lot of the questions have been asked. And so maybe I will open the aperture just a little bit, starting with this. Do you believe that the American taxpayer has received good value for the tens of billions of federal dollars that have been spent on carbon capture technologies to date, yes or no?</t>
   </si>
   <si>
@@ -1438,9 +1372,6 @@
     <t>412555</t>
   </si>
   <si>
-    <t>Kevin Cramer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cramer. Yes, well, thank you, Mr. Chairman. And thanks to my colleagues for the indulgence.    You know what, it doesn't only take one good North Dakotan to represent the entire state, so I spread myself fairly thin, Mr. Secretary. So I thank the members. And I also, Mr. Secretary, want to thank you not only for being here, but for at least agreeing to, if not joyfully, although I think you are a joyful person, to holding one of the listening sessions in North Dakota. I know it was a late request, and it was a late addition to the agenda for you and Secretary Fox and others, but I thoroughly enjoyed the time that you were out there.    And I notice in the QER, there is a lot of reference to things that you learned last August in North Dakota, especially as it pertains to the transportation infrastructure, and some of the challenges particularly reflected are the challenges for the railroads that move multiple commodities, as you know. And you heard quite clearly, and I think, again, indicated in the report quite clearly, that there were challenges, but at the same time, one of the things I want to do, I think, is to bring the record up-to-date. Last August, we were following on two record winters and two bumper crops, we had two seasons in a row that strained the infrastructure for sure for agricultural commodities. I think one of the bigger challenges was the fact that not only was it a record crop or a bumper crop, but it was a late harvest, due to weather, it was also a late and a very wet harvest. And so there was a consolidation of all of those commodities. And the additional moisture creating other transportation problems like the movement of propane, for example, for grain drying. That perfect storm created incredible stress on the infrastructure, along with, of course, 700,000 or so barrels per day of oil being moved by rail. So there was a lot of criticism last August. There is a fair bit of that reflected in the report, but just in the last 10 months, the storm has sort of shifted, and I want to stress some of those points, but also encourage you and the team to continue to monitor it on a very regular basis, because some of the things that were identified have worked. The STB's weekly--the requirement for the weekly reports, for example, by the class 1 railroads has been very helpful in transparency, allowed better planning. A warmer winter with a more traditional harvest season, and, frankly, lower commodity prices have created more normalcy. And during which time, and I can be the railroad's worst nightmare, but I also want to acknowledge when they have done their part, and I have to say for BNSF, which is obviously, our largest railroad by far, they have invested mightily in personnel, locomotive, energy, cars, and certainly double-tracking much of the Bakken region and much of the Upper Midwest. And I want to be sure that the record is clear, but I also want to, again, encourage you to remain flexible and update the report regularly to acknowledge that this robust infrastructure does exist. And it is my hope and my expectation that that additional and more robust rail infrastructure actually enhances all commodities.    I also think it is worth noting that because of the STB reports, we have noticed that they are pretty well caught. Not just pretty well caught up, but caught up to the point where there is extra capacity. And much like the electrical grid, it doesn't hurt to have a little extra capacity, but it also creates opportunity for growth.    So, I would only probably ask that, for you to comment on my comments if you would like to, but again, express my appreciation for your attention to the issues.</t>
   </si>
   <si>
@@ -1480,27 +1411,18 @@
     <t xml:space="preserve">    Mr. Whitfield. Thank you. And, Mr. Martin, thank you for being with us.    Once again, I want to thank all of you. We really look forward to your testimony. And I am sorry that there was such a delay in your testifying. We had to reschedule a little bit. But, Mr. Dolzer, I think you came the longest distance--from Bonn, Germany, and I think you were in the German Parliament at the time, and you are a professor also at the University of Bonn, and so we genuinely appreciate your making this effort. And I am going to recognize you to start off with for 5 minutes. And then after everyone has concluded, we will have some questions for some of you. So, Mr. Dolzer, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Dolzer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Dolzer. Thank you, Chairman Whitfield, Ranking Member Rush, members of the committee. My name is Rudolf Dolzer, I am a German national who, all together, has lived about 8 years in the United States. In Germany, I became a law professor. Subsequently, I was director general of the Federal Office of the Chancellor and the Chancellor Kohl. This is where my gray hair come from. And then I was appointed three times to the German Parliament's Commission of Inquiry. We have that in Germany, you can be appointed to Parliament without the right to vote.    In the U.S., I studied in Spokane, Washington, at Gonzaga University. Then I studied for a longer period at the Harvard Law School. I later taught at five U.S. universities; the last time in Dallas in Texas. In Houston, I am a member of the Advisory Board of the Association of Independent Petroleum Negotiators. A month ago, I published a larger study of international cooperation in global energy affairs.    Mr. Chairman, the era of abundance, as you say, opens up new opportunities of leadership for the United States, and the world is looking at the United States. This reminds us also, at least me, that energy is not just about energy, it is about foreign affairs, it is about national security, it is about finances. But ultimately, energy has its own characteristics and dynamics and, this is my first major point, foreign affairs, national security, and also issues such as trade must be folded into the fabrics of energy politics and not the other way around. This is also my view as regards climate change.    Energy politics, Mr. Chairman, and when I look at your draft on energy diplomacy, energy politics also calls for arrangements of its own when it comes to international cooperation. Title III of the present bill represents an innovative modern approach, also from an international point of view. This Title may even be strengthened by a transatlantic trade and investment partnership. Again, trade is not just one aspect of energy. Recent events, and this has been addressed this morning, in Russia and Ukraine, and Europe in general, have underlined that energy independence will require safe energy supplies, and will require political foresight and a robust long-term strategy. Together, we must understand the nature of that issue.    This is not well known, Europe as a whole will, in the coming decade become more vulnerable as our resources dwindle, in particular in Norway. So this is Europe as a whole. The forums as proposed in your bill will serve to provide a common basis, but I propose that we go further and establish a more advanced concept which I call the Transatlantic Energy Agenda. We need to update and broaden existing arrangements with the new involvement, I think of parliaments and of the private sector. We have longstanding arrangements for cooperation in foreign affairs, in national security, in agriculture, for example. For energy, arrangements of this kinds are lacking at the moment, and I think that ought to change. We need more exchange, we need better exchange, we need to know what we are doing, and we need exchange about best practice.    America's abundance also lends itself to strengthening of regional partnerships. In Europe, we have particular experience in this respect. Since 2009, the European Union has the competence to deal with the establishment of a single market, but the member states have retained their sovereign powers to determine the energy mix. The French made sure that no one touches their right to work with atomic power. This is a very complex jurisdictional situation which we have in Europe. We now have a set of rules promoting competition in Europe with liberalization with unbundling. We have less progress, and I think this is of interest here so far with regard to internal and cross-border connections to overcome isolated domestic markets.    The key concept which has been worked out in the last 24 months has been the idea of project of common interests, as it is called. The new rules call, and I think this is of interest here, for a much more rapid process of approving permits. So far, that time, don't be astonished, took about 10 years or more to have a permit for a trans-border arrangement. This is now going down to 3 \\1/2\\ years at a maximum, according to the new law. Also member states now must introduce one-step authorities instead of the multitude of institutional arrangements we have had so far.    Now, the funds needed for a single energy market will be considerable, but I think the advantage will justify the cost. Costs in terms of secure supply, new infrastructure urgently needed, more options for the customers, better negotiating position on the international level. When you negotiate with Russia or the OPEC or Venezuela, I think the larger your market, the better it is. In North America, I think a new taskforce by the NAFTA countries, similar to the European Commission, might help to elaborate a unified energy strategy.    Mr. Chairman, I conclude. In the past, energy issues have at times been a bone of contention between the United States and Europe; sometimes a bitter contention. I think your bill with Title III has the promise and the hallmarks of a new era of cooperation, with tangible benefits on both sides of the Atlantic.    Thank you very much for your attention. I very much appreciate this opportunity to express my views before your important committee. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Well, thank you, Dr. Dolzer.    And our next witness, as I said, is Mr. Jason Grumet, who is the President of the Bipartisan Policy Center. And thank you very much for being with us. You are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Grumet</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grumet. Well, thank you very much, Chairman Whitfield, Mr. Rush, and the resilient members of the committee. On behalf of the Bipartisan Policy Center, it is a pleasure to join you in this important discussion on the economic and policy architecture governing our Nation's energy abundance.    My testimony can be summarized into 3 main points. First, I want to applaud the committee for focusing on significant opportunities to strengthen North American energy integration and collaboration. North American energy security and self-sufficiency are, in fact, realistic goals that must be vigorously pursued, and not taken for granted.    My second point, Mr. Chairman, is that increased North American cooperation is a critical component of a larger effort to promote economic growth through efficient markets, to enhance North America's role in global energy trade, and to project U.S. power and global interests.    And my third point is that we must seize the opportunity to translate this strength of abundance into a long-term and sustainable energy strategy, and not allow this strength to result in unintended complacency.    In short, Mr. Chairman, this committee and Congress has the disorienting challenge of managing success, which is a new problem for our Nation when it comes to energy policy, and I think it creates real opportunities that we need to discuss.    So let me begin by saying a little bit about the energy integration and collaboration. I believe the provisions in this legislation that promote data quality and sharing, that coordinate planning and improve permitting and siting, are all essential to achieving the promise of North American energy security.    The opportunities are particularly pronounced in the case of Mexico. While U.S. companies have much to gain in increased trade with Mexico, it is hard to overstate the importance of energy production to the Mexican economy, and the broader U.S.-Mexican relationship. Even after years of decline, energy production remains a key source of high-paying jobs, and is responsible for actually \\1/3\\ of the Mexican Government's overall activities. If modernization efforts succeed, energy production could be a significant driver of Mexican economic development and individual opportunity. And the implications here are quite broad. The Bipartisan Policy Center believes that we must reform our Nation's broken immigration system. And while this hearing is not the place to discuss the challenges and intricacies of protecting the southern border or enhancing our legal immigration, there is no question that improved economic opportunity in Mexico is an essential component of successful and lasting immigration reform.    Let me turn now to the issue of siting. While our technology for producing energy has evolved dramatically over the last decades, our permitting policies date back to the 1950s and 1960s, and are poorly matched to our rapidly evolving needs. We commend the committee's substantive efforts to make the cross-border permitting process more transparent and predictable. BPC also commends the committee's political judgment in crafting this provision to exempt the still-pending Keystone decision. It is time to have a broad-based bipartisan energy debate that is explicitly beyond Keystone, and it is encouraging to see the committee working diligently to avoid a focus on symbolic disagreements in favor of producing an agenda that can secure broad bipartisan support and become law.    I would like to now move to the second point, which is a focus on the component that North America plays in the larger global picture. Our Nation has made, I think some very good progress of late supporting LNG exports, but as was discussed earlier, current restrictions on crude oil are undermining out commitment to efficient markets, they diminish our ability to promote free trade and fair trade, and they empower our adversaries who seek to use energy as a weapon. I cannot build upon Mr. Barton's string site of studies except to agree that there has been a spate of recent analyses that all conclude that adding a reliable supply of crude to the global market will continue to exert downward pressure and actually protect U.S. consumers.    My final point is on the challenge of how we use this abundance to promote our long-term sustainability and security needs. There is a broad critique of the abundance agenda that must be grappled with if we are going to secure the broad-based support for an effective national energy policy. The concern is that stable, low-cost supplies of oil and gas are undermining investment in the diverse array of technologies our Nation and the world will require over the next century to meet global demand, to protect our security interests, and to confront the risks of climate change. This legitimate concern, however, leads to very different policy pathways. The Bipartisan Policy Center believes that additional action must be taken to confront climate change, but we reject the idea that we should pursue a low-carbon future by erecting and undermining barriers to the resurgence of oil and gas production. Perpetuating inefficient markets and creating transportation and infrastructure bottlenecks in the hope of somehow reducing global reliance on fossil fuels is not an effective climate change strategy, and if anything, it will result in increased emissions. Instead, as we vigorously pursue the benefits of abundance, we must be equally determined in conducting the research and creating the incentives to develop and commercialize the next generation of energy breakthroughs. From carbon capture and storage, to utility-scale solar, to next generation biofuels, advanced nuclear energy storage, and an array of energy-saving technologies, we must find ways to encourage greater investment, despite the current low price environment.    America's hydrocarbon renaissance has given us the gift of time. The question before the committee and Congress is what do we do with this time.    In closing, the Bipartisan Policy Center looks forward to continuing to work with the committee as you build an architecture for abundance that grows our economy, enhances our security, and confronts domestic and global environmental threats.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you.    And our next witness, who has already been introduced, but is Mr. Scott Martin, who is a County Commissioner, Lancaster County, Pennsylvania. Thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Martin. Thank you, Mr. Chairman. Just for the record, it is Lancaster, not Lancaster.</t>
   </si>
   <si>
@@ -1537,9 +1459,6 @@
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Mr. Martin.    And our next witness is Mr. Gerald Kepes, who is Vice President of Upstream Research and Consulting. And, Mr. Kepes, thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Kepes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kepes. Thank you, Mr. Chairman. Members, thank you for having me here.</t>
   </si>
   <si>
@@ -1558,16 +1477,10 @@
     <t xml:space="preserve">    Mr. Whitfield. Well, thank you, Mr. Kepes.    And our next witness is Alison Cassady, who is the Director of Domestic Energy Policy for the Center for American Progress. And thank you very much for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Cassady</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Cassady. Thank you, Chairman Whitfield, Ranking Member Rush, and members of the subcommittee, thank you for the opportunity to testify today. My name is Alison Cassady, and I am Director of Domestic Energy Policy for the Center for American Progress. CAP is a nonprofit organization dedicated to improving the lives of Americans through progressive ideas and action.    Before I jump into my more specific comments on the energy diplomacy discussion draft, I would like to highlight a topic that is not a subject of today's hearing, but I think should be, and that is climate change which, to me, is the most urgent and challenging energy diplomacy issue of our time.    Climate change has become a priority in international relations because the climate science is so clear. A failure to act on climate change risks severe, irreversible impacts on a global scale. As the committee considers the Nation's energy policy and its interaction with the rest of the world, CAP urges you to put climate change front and center of any policy that you develop. We can no longer afford to separate energy policy from climate policy.    So with that introductory context in mind, I am going to jump into a few thoughts on Section 3104 of the discussion draft about cross-border energy projects.    As you all know, under current law, entities wanting to construct or operate a cross-border pipeline or transmission line are required to obtain a presidential permit. This section of the bill eliminates that requirement, and instead requires the relevant federal agency to issue a certificate of crossing; that is, unless the agency finds that the cross-border segment of the project is not in the public interest of the United States.    And I have a few concerns about this approach. First, the new process presumes that the project is in the public interest, placing the burden of proof on concerned stakeholders to demonstrate that it is not, instead of asking the applicant to make the affirmative case that it is. Second, under the new process, the applicant only needs to obtain federal approval for the portion of the project that physically crosses the U.S. border, even if the project itself spans hundreds of miles. And finally, the new process limits environmental review under NEPA to just the cross-border section of the project. To me, this makes little sense since we all know that these types of projects can have environmental impacts well beyond the border. For a truly transcontinental project, such as a pipeline that runs through numerous states down to the Gulf Coast, the current presidential permitting process is the only venue for the public and stakeholders to examine and understand the potential impacts of the whole project that is under consideration. Under the process established by this bill, the review would be fragmented, it would be state-by-state, and no one except the project applicant would ever examine the project as a whole.    I also have a few concerns about Section 3106, which is the LNG export section. This section sets a 30-day deadline upon the completion of an environmental review for the DOE to issue a final decision on any application to export natural gas to a non-free trade county. The United States is well on track to becoming a new exporter of natural gas. To date, the DOE has issued final authorizations to 6 facilities to export up to 8.6 billion cubic feet per day of LNG. That is more than 10 percent of daily U.S. natural gas consumption, and that is on top of what we already export to free trade countries like Mexico.    The existing DOE permitting system appears to be working. It puzzles me, therefore, why we need a bill that would seek to fast-track new DOE permit approvals. To be clear, CAP does not oppose LNG exports in principle, but we have concerns about placing an artificial deadline on agency review of permit applications. Congress should not preclude DOE from taking the time it needs to make a considered and well-informed decision, particularly on the most difficult projects. The stakes are simply too high for natural gas consumers here in the United States. Last year, the Energy Information Administration concluded that increased LNG exports lead to increased natural gas prices. And these higher natural gas prices create economic winners and losers. Certainly, natural gas producers and employees of natural gas producers would be the clear winners, but, for example, manufacturers that use natural gas as a feedstock would face much higher energy costs.    In short, the decision to export significant volumes of natural gas, even to our allies, is a complex one that should not be made lightly given the potential consumer impacts here in the United States. This decision is made even more complicated given the growing demand here at home for natural gas in both the electricity sector and the transportation sector. So if the United States overcommits to natural gas exports via long-term 20-year contracts, consumers here could pay the price, and that is why a deliberative process is so important.    With that, I will end my testimony, and be happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Ms. Cassady.    And our next witness is Ms. Emily Hammond, who is Professor of Law at George Washington University Law School. And thank you for joining us, and you are recognized for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Hammond</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Hammond. Thank you, Chairman Whitfield, Ranking Member Rush, and the distinguished members of the subcommittee. I appreciate the opportunity to testify today.    In my testimony, I would like to highlight several concerns that undermine the discussion draft's important goal of a unified energy policy. These concerns relate specifically to Sections 3102, 3104, and 3106. In short, those provisions fail to properly account for the reliability, fuel diversity, and environmental implications of energy policy, and they also fail to adequately permit the energy agencies to undertake their work in a participatory, deliberative, and well-reasoned manner.    Let me start with the Interagency Taskforce. Despite that the lines between energy and the environment no longer truly exist--excuse me, the composition of the taskforce has significant gaps that will hinder rather than help the development of a comprehensive energy policy. Most critical is the absence of agencies with environmental expertise. But other key agencies like those whose missions relate to jobs, to the economy, and to transportation, are also omitted from the taskforce. As demonstrated by the QER, which we heard about this morning, all of these agencies can successfully work together toward unified energy policies, and administrative law will show that when agencies collaborate in this way, they are more successful, and that they tend to have broader stakeholder support, and they have reduced vulnerability to judicial challenges.    For the same reasons, the criteria for the Interagency Taskforce as planned should include environmental issues, and especially climate change. Failing to do so will only deepen the current dysfunctions in our energy regulatory system and in the energy markets.    Second, the authorization for cross-border infrastructure projects does not make clear how DOE would implement its authority differently from how it currently does under the presidential permit framework. Currently procedures do account for environmental issues, and those should be retained. I note as well that the provisions striking portions of the Federal Power Act, and in particular Section 202(f), threaten to undermine important backstop authority that the Federal Power Act retains for FERC that allow it to ensure grid reliability for intrastate projects that cross international boundaries. I urge the subcommittee to carefully reexamine the striking provisions of this section.    Finally, the 30-day deadline for DOE action on LNG applications is of concern. Even if DOE is able to act quickly in some circumstances, it needs more flexibility, given the very complex issues at stake. Imposing a rigid deadline actually threatens more delay. First, deadline suits, which are contemplated by the discussion draft, tend to impose additional delays even if those suits are successful. And second, with stakes so high and such engaged stakeholders, judicial challenges are inevitable. All right, we can easily predict lawsuits no matter DOE's decision, and if DOE is rushed in making its determination, the record is less likely to be carefully developed, the agency's reasoning may not be clear, and once again, it is likely to be more vulnerable to judicial remand and imposition of even further delays.    To summarize, the relationship between energy and the environment must be considered as the United States seeks a uniform energy policy. Careful attention to administrative procedure and its role in promoting good government must also accompany any new energy statutes. If we move forward with U.S. energy policy with these principles in mind, we can make substantial improvements for the future.    Thank you again for the opportunity to testify today, and I look forward to your questions.</t>
@@ -2131,11 +2044,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2157,11 +2068,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2183,11 +2092,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2207,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2235,11 +2140,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2259,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2287,11 +2188,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2313,11 +2212,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2339,11 +2236,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2365,11 +2260,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2391,11 +2284,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2417,11 +2308,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2443,11 +2332,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2469,11 +2356,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2495,11 +2380,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2521,11 +2404,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2547,11 +2428,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2573,11 +2452,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2599,11 +2476,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2625,11 +2500,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2651,11 +2524,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2677,11 +2548,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2703,11 +2572,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2729,11 +2596,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2755,11 +2620,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2779,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2807,11 +2668,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2831,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2859,11 +2716,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2883,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2911,11 +2764,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2935,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2963,11 +2812,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2989,11 +2836,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3013,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3041,11 +2884,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3065,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3093,11 +2932,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3117,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3145,11 +2980,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>24</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3169,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3197,11 +3028,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>24</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3223,11 +3052,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3249,11 +3076,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3273,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3301,11 +3124,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3325,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3351,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3377,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3405,11 +3220,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>24</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3429,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>64</v>
-      </c>
-      <c r="H52" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3457,11 +3268,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>24</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3481,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3509,11 +3316,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>24</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3533,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
-      </c>
-      <c r="G56" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3561,11 +3364,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3585,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3613,11 +3412,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>24</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3637,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3665,11 +3460,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>24</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3689,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3717,11 +3508,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>24</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3741,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
-      </c>
-      <c r="G64" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3769,11 +3556,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>24</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3793,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
-      </c>
-      <c r="G66" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3821,11 +3604,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>24</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3845,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
-      </c>
-      <c r="G68" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3873,11 +3652,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>24</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3897,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
-      </c>
-      <c r="G70" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3925,11 +3700,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3949,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
-      </c>
-      <c r="G72" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3977,11 +3748,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>24</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4001,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4029,11 +3796,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4053,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
+        <v>83</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
         <v>88</v>
-      </c>
-      <c r="G76" t="s">
-        <v>89</v>
-      </c>
-      <c r="H76" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4081,11 +3844,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>24</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4105,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4133,11 +3892,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>24</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4157,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4185,11 +3940,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>24</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4209,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G82" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4237,11 +3988,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>24</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4261,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
-      </c>
-      <c r="G84" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4289,11 +4036,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>24</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4313,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
-      </c>
-      <c r="G86" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4341,11 +4084,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4365,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>106</v>
-      </c>
-      <c r="G88" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4393,11 +4132,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>24</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4417,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>106</v>
-      </c>
-      <c r="G90" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4445,11 +4180,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>24</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4469,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>106</v>
-      </c>
-      <c r="G92" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4497,11 +4228,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>24</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4521,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>106</v>
-      </c>
-      <c r="G94" t="s">
+        <v>100</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
         <v>107</v>
-      </c>
-      <c r="H94" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4549,11 +4276,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>24</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4573,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>106</v>
-      </c>
-      <c r="G96" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4601,11 +4324,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>24</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4625,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>106</v>
-      </c>
-      <c r="G98" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4653,11 +4372,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4677,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>120</v>
-      </c>
-      <c r="G100" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4705,11 +4420,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>24</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4729,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>120</v>
-      </c>
-      <c r="G102" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4757,11 +4468,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4781,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>120</v>
-      </c>
-      <c r="G104" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4809,11 +4516,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>24</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4833,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>120</v>
-      </c>
-      <c r="G106" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4861,11 +4564,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>24</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4885,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>120</v>
-      </c>
-      <c r="G108" t="s">
+        <v>113</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
         <v>121</v>
-      </c>
-      <c r="H108" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4913,11 +4612,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>24</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4937,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>120</v>
-      </c>
-      <c r="G110" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4965,11 +4660,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>24</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4989,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>120</v>
-      </c>
-      <c r="G112" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5017,11 +4708,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>24</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5041,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>120</v>
-      </c>
-      <c r="G114" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5069,11 +4756,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>24</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5093,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>120</v>
-      </c>
-      <c r="G116" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5121,11 +4804,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>24</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5145,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>120</v>
-      </c>
-      <c r="G118" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5173,11 +4852,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>24</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5197,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>120</v>
-      </c>
-      <c r="G120" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5225,11 +4900,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>24</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5249,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>120</v>
-      </c>
-      <c r="G122" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5277,11 +4948,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>24</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5301,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>120</v>
-      </c>
-      <c r="G124" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5329,11 +4996,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>24</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5353,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>120</v>
-      </c>
-      <c r="G126" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5381,11 +5044,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>24</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5405,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>120</v>
-      </c>
-      <c r="G128" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5433,11 +5092,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>24</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5457,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>120</v>
-      </c>
-      <c r="G130" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5485,11 +5140,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>24</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5509,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>120</v>
-      </c>
-      <c r="G132" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5537,11 +5188,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>24</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5561,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>120</v>
-      </c>
-      <c r="G134" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5589,11 +5236,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>24</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5613,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>120</v>
-      </c>
-      <c r="G136" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5641,11 +5284,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>24</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5667,11 +5308,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5691,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>120</v>
-      </c>
-      <c r="G139" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5719,11 +5356,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5743,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>120</v>
-      </c>
-      <c r="G141" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5771,11 +5404,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5795,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>120</v>
-      </c>
-      <c r="G143" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5823,11 +5452,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5847,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>120</v>
-      </c>
-      <c r="G145" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5875,11 +5500,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5899,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>120</v>
-      </c>
-      <c r="G147" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5927,11 +5548,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>24</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5951,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>120</v>
-      </c>
-      <c r="G149" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5979,11 +5596,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6003,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>170</v>
-      </c>
-      <c r="G151" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6031,11 +5644,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>24</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6055,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>170</v>
-      </c>
-      <c r="G153" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6083,11 +5692,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>24</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6107,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>170</v>
-      </c>
-      <c r="G155" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6135,11 +5740,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>24</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6159,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>170</v>
-      </c>
-      <c r="G157" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6187,11 +5788,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>24</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6211,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>170</v>
-      </c>
-      <c r="G159" t="s">
+        <v>162</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
         <v>171</v>
-      </c>
-      <c r="H159" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6239,11 +5836,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>24</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6263,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>170</v>
-      </c>
-      <c r="G161" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6291,11 +5884,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>24</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6315,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>170</v>
-      </c>
-      <c r="G163" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6343,11 +5932,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>24</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6367,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>170</v>
-      </c>
-      <c r="G165" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6395,11 +5980,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>24</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6419,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>170</v>
-      </c>
-      <c r="G167" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6447,11 +6028,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>24</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6471,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>170</v>
-      </c>
-      <c r="G169" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6499,11 +6076,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>24</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6523,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>170</v>
-      </c>
-      <c r="G171" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6551,11 +6124,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>24</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6575,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>170</v>
-      </c>
-      <c r="G173" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6603,11 +6172,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>24</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6627,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>170</v>
-      </c>
-      <c r="G175" t="s">
-        <v>171</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6655,11 +6220,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>24</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6681,11 +6244,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6705,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>198</v>
-      </c>
-      <c r="G178" t="s">
-        <v>199</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6733,11 +6292,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>24</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6757,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>198</v>
-      </c>
-      <c r="G180" t="s">
-        <v>199</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6785,11 +6340,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>24</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6809,13 +6362,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>198</v>
-      </c>
-      <c r="G182" t="s">
-        <v>199</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6837,11 +6388,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>24</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6861,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>198</v>
-      </c>
-      <c r="G184" t="s">
-        <v>199</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6889,11 +6436,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>24</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6913,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
+        <v>189</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
         <v>198</v>
-      </c>
-      <c r="G186" t="s">
-        <v>199</v>
-      </c>
-      <c r="H186" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6941,11 +6484,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>24</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6965,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>198</v>
-      </c>
-      <c r="G188" t="s">
-        <v>199</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6993,11 +6532,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>24</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7017,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>198</v>
-      </c>
-      <c r="G190" t="s">
-        <v>199</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7045,11 +6580,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>24</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7069,13 +6602,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>198</v>
-      </c>
-      <c r="G192" t="s">
-        <v>199</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7097,11 +6628,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>24</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7121,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>198</v>
-      </c>
-      <c r="G194" t="s">
-        <v>199</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7149,11 +6676,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>24</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7173,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>198</v>
-      </c>
-      <c r="G196" t="s">
-        <v>199</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7201,11 +6724,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>24</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7227,11 +6748,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7253,11 +6772,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>24</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7279,11 +6796,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7303,13 +6818,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>222</v>
-      </c>
-      <c r="G201" t="s">
-        <v>223</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7331,11 +6844,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>24</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7355,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>222</v>
-      </c>
-      <c r="G203" t="s">
-        <v>223</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7383,11 +6892,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>24</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7407,13 +6914,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>222</v>
-      </c>
-      <c r="G205" t="s">
-        <v>223</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7435,11 +6940,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>24</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7459,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>222</v>
-      </c>
-      <c r="G207" t="s">
-        <v>223</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7487,11 +6988,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>24</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7511,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>222</v>
-      </c>
-      <c r="G209" t="s">
-        <v>223</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7539,11 +7036,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>24</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7563,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>222</v>
-      </c>
-      <c r="G211" t="s">
+        <v>212</v>
+      </c>
+      <c r="G211" t="s"/>
+      <c r="H211" t="s">
         <v>223</v>
-      </c>
-      <c r="H211" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7591,11 +7084,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7615,13 +7106,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>236</v>
-      </c>
-      <c r="G213" t="s">
-        <v>237</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7643,11 +7132,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>24</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7667,13 +7154,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>236</v>
-      </c>
-      <c r="G215" t="s">
-        <v>237</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7695,11 +7180,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>24</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7721,11 +7204,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7745,13 +7226,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>243</v>
-      </c>
-      <c r="G218" t="s">
-        <v>244</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7773,11 +7252,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>24</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7797,13 +7274,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>243</v>
-      </c>
-      <c r="G220" t="s">
-        <v>244</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7825,11 +7300,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>24</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7849,13 +7322,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>243</v>
-      </c>
-      <c r="G222" t="s">
-        <v>244</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7877,11 +7348,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>24</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7901,13 +7370,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>243</v>
-      </c>
-      <c r="G224" t="s">
-        <v>244</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7929,11 +7396,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>24</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7953,13 +7418,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>243</v>
-      </c>
-      <c r="G226" t="s">
-        <v>244</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7981,11 +7444,9 @@
       <c r="F227" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="s">
-        <v>24</v>
-      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8005,13 +7466,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>243</v>
-      </c>
-      <c r="G228" t="s">
-        <v>244</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8033,11 +7492,9 @@
       <c r="F229" t="s">
         <v>11</v>
       </c>
-      <c r="G229" t="s">
-        <v>24</v>
-      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8057,13 +7514,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>243</v>
-      </c>
-      <c r="G230" t="s">
+        <v>231</v>
+      </c>
+      <c r="G230" t="s"/>
+      <c r="H230" t="s">
         <v>244</v>
-      </c>
-      <c r="H230" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8085,11 +7540,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>24</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8109,13 +7562,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>243</v>
-      </c>
-      <c r="G232" t="s">
-        <v>244</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8137,11 +7588,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>24</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8161,13 +7610,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>243</v>
-      </c>
-      <c r="G234" t="s">
-        <v>244</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8189,11 +7636,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>24</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8213,13 +7658,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>243</v>
-      </c>
-      <c r="G236" t="s">
-        <v>244</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8241,11 +7684,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>24</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8265,13 +7706,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>243</v>
-      </c>
-      <c r="G238" t="s">
-        <v>244</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8293,11 +7732,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8317,13 +7754,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>267</v>
-      </c>
-      <c r="G240" t="s">
-        <v>268</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8345,11 +7780,9 @@
       <c r="F241" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
-        <v>24</v>
-      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8369,13 +7802,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>267</v>
-      </c>
-      <c r="G242" t="s">
-        <v>268</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8397,11 +7828,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>24</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8421,13 +7850,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>267</v>
-      </c>
-      <c r="G244" t="s">
-        <v>268</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8449,11 +7876,9 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
-        <v>24</v>
-      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8473,13 +7898,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>267</v>
-      </c>
-      <c r="G246" t="s">
-        <v>268</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8501,11 +7924,9 @@
       <c r="F247" t="s">
         <v>11</v>
       </c>
-      <c r="G247" t="s">
-        <v>24</v>
-      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8527,11 +7948,9 @@
       <c r="F248" t="s">
         <v>11</v>
       </c>
-      <c r="G248" t="s">
-        <v>12</v>
-      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8551,13 +7970,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>277</v>
-      </c>
-      <c r="G249" t="s">
-        <v>278</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8579,11 +7996,9 @@
       <c r="F250" t="s">
         <v>11</v>
       </c>
-      <c r="G250" t="s">
-        <v>24</v>
-      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8603,13 +8018,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>277</v>
-      </c>
-      <c r="G251" t="s">
-        <v>278</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8631,11 +8044,9 @@
       <c r="F252" t="s">
         <v>11</v>
       </c>
-      <c r="G252" t="s">
-        <v>24</v>
-      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8655,13 +8066,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>277</v>
-      </c>
-      <c r="G253" t="s">
-        <v>278</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8683,11 +8092,9 @@
       <c r="F254" t="s">
         <v>11</v>
       </c>
-      <c r="G254" t="s">
-        <v>24</v>
-      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8707,13 +8114,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>277</v>
-      </c>
-      <c r="G255" t="s">
-        <v>278</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8735,11 +8140,9 @@
       <c r="F256" t="s">
         <v>11</v>
       </c>
-      <c r="G256" t="s">
-        <v>24</v>
-      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8761,11 +8164,9 @@
       <c r="F257" t="s">
         <v>11</v>
       </c>
-      <c r="G257" t="s">
-        <v>24</v>
-      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8787,11 +8188,9 @@
       <c r="F258" t="s">
         <v>11</v>
       </c>
-      <c r="G258" t="s">
-        <v>24</v>
-      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8811,13 +8210,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>277</v>
-      </c>
-      <c r="G259" t="s">
-        <v>278</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8839,11 +8236,9 @@
       <c r="F260" t="s">
         <v>11</v>
       </c>
-      <c r="G260" t="s">
-        <v>24</v>
-      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8863,13 +8258,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>277</v>
-      </c>
-      <c r="G261" t="s">
-        <v>278</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8891,11 +8284,9 @@
       <c r="F262" t="s">
         <v>11</v>
       </c>
-      <c r="G262" t="s">
-        <v>24</v>
-      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8915,13 +8306,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>277</v>
-      </c>
-      <c r="G263" t="s">
+        <v>263</v>
+      </c>
+      <c r="G263" t="s"/>
+      <c r="H263" t="s">
         <v>278</v>
-      </c>
-      <c r="H263" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8943,11 +8332,9 @@
       <c r="F264" t="s">
         <v>11</v>
       </c>
-      <c r="G264" t="s">
-        <v>24</v>
-      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8967,13 +8354,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>277</v>
-      </c>
-      <c r="G265" t="s">
-        <v>278</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8995,11 +8380,9 @@
       <c r="F266" t="s">
         <v>11</v>
       </c>
-      <c r="G266" t="s">
-        <v>24</v>
-      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9019,13 +8402,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>277</v>
-      </c>
-      <c r="G267" t="s">
-        <v>278</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9047,11 +8428,9 @@
       <c r="F268" t="s">
         <v>11</v>
       </c>
-      <c r="G268" t="s">
-        <v>24</v>
-      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9073,11 +8452,9 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" t="s">
-        <v>12</v>
-      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9097,13 +8474,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>299</v>
-      </c>
-      <c r="G270" t="s">
-        <v>300</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9125,11 +8500,9 @@
       <c r="F271" t="s">
         <v>11</v>
       </c>
-      <c r="G271" t="s">
-        <v>24</v>
-      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9149,13 +8522,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>299</v>
-      </c>
-      <c r="G272" t="s">
-        <v>300</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9177,11 +8548,9 @@
       <c r="F273" t="s">
         <v>11</v>
       </c>
-      <c r="G273" t="s">
-        <v>24</v>
-      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9201,13 +8570,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>299</v>
-      </c>
-      <c r="G274" t="s">
-        <v>300</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9229,11 +8596,9 @@
       <c r="F275" t="s">
         <v>11</v>
       </c>
-      <c r="G275" t="s">
-        <v>24</v>
-      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9253,13 +8618,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>299</v>
-      </c>
-      <c r="G276" t="s">
-        <v>300</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9281,11 +8644,9 @@
       <c r="F277" t="s">
         <v>11</v>
       </c>
-      <c r="G277" t="s">
-        <v>24</v>
-      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9305,13 +8666,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>299</v>
-      </c>
-      <c r="G278" t="s">
-        <v>300</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9333,11 +8692,9 @@
       <c r="F279" t="s">
         <v>11</v>
       </c>
-      <c r="G279" t="s">
-        <v>12</v>
-      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9357,13 +8714,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>311</v>
-      </c>
-      <c r="G280" t="s">
-        <v>312</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9385,11 +8740,9 @@
       <c r="F281" t="s">
         <v>11</v>
       </c>
-      <c r="G281" t="s">
-        <v>24</v>
-      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9409,13 +8762,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>311</v>
-      </c>
-      <c r="G282" t="s">
-        <v>312</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9437,11 +8788,9 @@
       <c r="F283" t="s">
         <v>11</v>
       </c>
-      <c r="G283" t="s">
-        <v>24</v>
-      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9461,13 +8810,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>311</v>
-      </c>
-      <c r="G284" t="s">
-        <v>312</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9489,11 +8836,9 @@
       <c r="F285" t="s">
         <v>11</v>
       </c>
-      <c r="G285" t="s">
-        <v>24</v>
-      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9515,11 +8860,9 @@
       <c r="F286" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9539,13 +8882,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>320</v>
-      </c>
-      <c r="G287" t="s">
-        <v>321</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9567,11 +8908,9 @@
       <c r="F288" t="s">
         <v>11</v>
       </c>
-      <c r="G288" t="s">
-        <v>24</v>
-      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9591,13 +8930,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>320</v>
-      </c>
-      <c r="G289" t="s">
-        <v>321</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9619,11 +8956,9 @@
       <c r="F290" t="s">
         <v>11</v>
       </c>
-      <c r="G290" t="s">
-        <v>24</v>
-      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9643,13 +8978,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>320</v>
-      </c>
-      <c r="G291" t="s">
-        <v>321</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9671,11 +9004,9 @@
       <c r="F292" t="s">
         <v>11</v>
       </c>
-      <c r="G292" t="s">
-        <v>24</v>
-      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9695,13 +9026,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>320</v>
-      </c>
-      <c r="G293" t="s">
-        <v>321</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9723,11 +9052,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>24</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9747,13 +9074,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>320</v>
-      </c>
-      <c r="G295" t="s">
-        <v>321</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9775,11 +9100,9 @@
       <c r="F296" t="s">
         <v>11</v>
       </c>
-      <c r="G296" t="s">
-        <v>24</v>
-      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9799,13 +9122,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>320</v>
-      </c>
-      <c r="G297" t="s">
-        <v>321</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9827,11 +9148,9 @@
       <c r="F298" t="s">
         <v>11</v>
       </c>
-      <c r="G298" t="s">
-        <v>24</v>
-      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9851,13 +9170,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>320</v>
-      </c>
-      <c r="G299" t="s">
-        <v>321</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9879,11 +9196,9 @@
       <c r="F300" t="s">
         <v>11</v>
       </c>
-      <c r="G300" t="s">
-        <v>24</v>
-      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9903,13 +9218,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>320</v>
-      </c>
-      <c r="G301" t="s">
-        <v>321</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9931,11 +9244,9 @@
       <c r="F302" t="s">
         <v>11</v>
       </c>
-      <c r="G302" t="s">
-        <v>24</v>
-      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9955,13 +9266,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
+        <v>303</v>
+      </c>
+      <c r="G303" t="s"/>
+      <c r="H303" t="s">
         <v>320</v>
-      </c>
-      <c r="G303" t="s">
-        <v>321</v>
-      </c>
-      <c r="H303" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9983,11 +9292,9 @@
       <c r="F304" t="s">
         <v>11</v>
       </c>
-      <c r="G304" t="s">
-        <v>12</v>
-      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10007,13 +9314,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>320</v>
-      </c>
-      <c r="G305" t="s">
-        <v>321</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10035,11 +9340,9 @@
       <c r="F306" t="s">
         <v>11</v>
       </c>
-      <c r="G306" t="s">
-        <v>12</v>
-      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10059,13 +9362,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>342</v>
-      </c>
-      <c r="G307" t="s">
-        <v>343</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10087,11 +9388,9 @@
       <c r="F308" t="s">
         <v>11</v>
       </c>
-      <c r="G308" t="s">
-        <v>24</v>
-      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10111,13 +9410,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>342</v>
-      </c>
-      <c r="G309" t="s">
-        <v>343</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10139,11 +9436,9 @@
       <c r="F310" t="s">
         <v>11</v>
       </c>
-      <c r="G310" t="s">
-        <v>24</v>
-      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10163,13 +9458,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>342</v>
-      </c>
-      <c r="G311" t="s">
-        <v>343</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10191,11 +9484,9 @@
       <c r="F312" t="s">
         <v>11</v>
       </c>
-      <c r="G312" t="s">
-        <v>24</v>
-      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10215,13 +9506,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>342</v>
-      </c>
-      <c r="G313" t="s">
-        <v>343</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10243,11 +9532,9 @@
       <c r="F314" t="s">
         <v>11</v>
       </c>
-      <c r="G314" t="s">
-        <v>24</v>
-      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10267,13 +9554,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>342</v>
-      </c>
-      <c r="G315" t="s">
-        <v>343</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10295,11 +9580,9 @@
       <c r="F316" t="s">
         <v>11</v>
       </c>
-      <c r="G316" t="s">
-        <v>24</v>
-      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10319,13 +9602,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>342</v>
-      </c>
-      <c r="G317" t="s">
-        <v>343</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10347,11 +9628,9 @@
       <c r="F318" t="s">
         <v>11</v>
       </c>
-      <c r="G318" t="s">
-        <v>24</v>
-      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10371,13 +9650,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>342</v>
-      </c>
-      <c r="G319" t="s">
-        <v>343</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10399,11 +9676,9 @@
       <c r="F320" t="s">
         <v>11</v>
       </c>
-      <c r="G320" t="s">
-        <v>24</v>
-      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10423,13 +9698,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>342</v>
-      </c>
-      <c r="G321" t="s">
-        <v>343</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10451,11 +9724,9 @@
       <c r="F322" t="s">
         <v>11</v>
       </c>
-      <c r="G322" t="s">
-        <v>24</v>
-      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10475,13 +9746,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>342</v>
-      </c>
-      <c r="G323" t="s">
-        <v>343</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10503,11 +9772,9 @@
       <c r="F324" t="s">
         <v>11</v>
       </c>
-      <c r="G324" t="s">
-        <v>24</v>
-      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10527,13 +9794,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
+        <v>324</v>
+      </c>
+      <c r="G325" t="s"/>
+      <c r="H325" t="s">
         <v>342</v>
-      </c>
-      <c r="G325" t="s">
-        <v>343</v>
-      </c>
-      <c r="H325" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10555,11 +9820,9 @@
       <c r="F326" t="s">
         <v>11</v>
       </c>
-      <c r="G326" t="s">
-        <v>12</v>
-      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10579,13 +9842,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>363</v>
-      </c>
-      <c r="G327" t="s">
-        <v>364</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10607,11 +9868,9 @@
       <c r="F328" t="s">
         <v>11</v>
       </c>
-      <c r="G328" t="s">
-        <v>12</v>
-      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10631,13 +9890,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>363</v>
-      </c>
-      <c r="G329" t="s">
-        <v>364</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10659,11 +9916,9 @@
       <c r="F330" t="s">
         <v>11</v>
       </c>
-      <c r="G330" t="s">
-        <v>24</v>
-      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10683,13 +9938,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>363</v>
-      </c>
-      <c r="G331" t="s">
-        <v>364</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10711,11 +9964,9 @@
       <c r="F332" t="s">
         <v>11</v>
       </c>
-      <c r="G332" t="s">
-        <v>24</v>
-      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10735,13 +9986,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>363</v>
-      </c>
-      <c r="G333" t="s">
-        <v>364</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10763,11 +10012,9 @@
       <c r="F334" t="s">
         <v>11</v>
       </c>
-      <c r="G334" t="s">
-        <v>24</v>
-      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10787,13 +10034,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>363</v>
-      </c>
-      <c r="G335" t="s">
-        <v>364</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10815,11 +10060,9 @@
       <c r="F336" t="s">
         <v>11</v>
       </c>
-      <c r="G336" t="s">
-        <v>24</v>
-      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10839,13 +10082,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>363</v>
-      </c>
-      <c r="G337" t="s">
-        <v>364</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10867,11 +10108,9 @@
       <c r="F338" t="s">
         <v>11</v>
       </c>
-      <c r="G338" t="s">
-        <v>24</v>
-      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10891,13 +10130,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>363</v>
-      </c>
-      <c r="G339" t="s">
-        <v>364</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10919,11 +10156,9 @@
       <c r="F340" t="s">
         <v>11</v>
       </c>
-      <c r="G340" t="s">
-        <v>24</v>
-      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10943,13 +10178,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>363</v>
-      </c>
-      <c r="G341" t="s">
-        <v>364</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10971,11 +10204,9 @@
       <c r="F342" t="s">
         <v>11</v>
       </c>
-      <c r="G342" t="s">
-        <v>24</v>
-      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10995,13 +10226,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>363</v>
-      </c>
-      <c r="G343" t="s">
-        <v>364</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11023,11 +10252,9 @@
       <c r="F344" t="s">
         <v>11</v>
       </c>
-      <c r="G344" t="s">
-        <v>24</v>
-      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11047,13 +10274,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>363</v>
-      </c>
-      <c r="G345" t="s">
-        <v>364</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11075,11 +10300,9 @@
       <c r="F346" t="s">
         <v>11</v>
       </c>
-      <c r="G346" t="s">
-        <v>12</v>
-      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11099,13 +10322,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>384</v>
-      </c>
-      <c r="G347" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11127,11 +10348,9 @@
       <c r="F348" t="s">
         <v>11</v>
       </c>
-      <c r="G348" t="s">
-        <v>24</v>
-      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11151,13 +10370,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>384</v>
-      </c>
-      <c r="G349" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11179,11 +10396,9 @@
       <c r="F350" t="s">
         <v>11</v>
       </c>
-      <c r="G350" t="s">
-        <v>24</v>
-      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11203,13 +10418,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>384</v>
-      </c>
-      <c r="G351" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11231,11 +10444,9 @@
       <c r="F352" t="s">
         <v>11</v>
       </c>
-      <c r="G352" t="s">
-        <v>24</v>
-      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11255,13 +10466,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>384</v>
-      </c>
-      <c r="G353" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11283,11 +10492,9 @@
       <c r="F354" t="s">
         <v>11</v>
       </c>
-      <c r="G354" t="s">
-        <v>24</v>
-      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11307,13 +10514,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>384</v>
-      </c>
-      <c r="G355" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11335,11 +10540,9 @@
       <c r="F356" t="s">
         <v>11</v>
       </c>
-      <c r="G356" t="s">
-        <v>24</v>
-      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11359,13 +10562,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>384</v>
-      </c>
-      <c r="G357" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11387,11 +10588,9 @@
       <c r="F358" t="s">
         <v>11</v>
       </c>
-      <c r="G358" t="s">
-        <v>24</v>
-      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11411,13 +10610,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>384</v>
-      </c>
-      <c r="G359" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11439,11 +10636,9 @@
       <c r="F360" t="s">
         <v>11</v>
       </c>
-      <c r="G360" t="s">
-        <v>24</v>
-      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11463,13 +10658,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>384</v>
-      </c>
-      <c r="G361" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11491,11 +10684,9 @@
       <c r="F362" t="s">
         <v>11</v>
       </c>
-      <c r="G362" t="s">
-        <v>24</v>
-      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11515,13 +10706,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>384</v>
-      </c>
-      <c r="G363" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11543,11 +10732,9 @@
       <c r="F364" t="s">
         <v>11</v>
       </c>
-      <c r="G364" t="s">
-        <v>24</v>
-      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11567,13 +10754,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>384</v>
-      </c>
-      <c r="G365" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11595,11 +10780,9 @@
       <c r="F366" t="s">
         <v>11</v>
       </c>
-      <c r="G366" t="s">
-        <v>24</v>
-      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11619,13 +10802,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
+        <v>364</v>
+      </c>
+      <c r="G367" t="s"/>
+      <c r="H367" t="s">
         <v>384</v>
-      </c>
-      <c r="G367" t="s">
-        <v>385</v>
-      </c>
-      <c r="H367" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11647,11 +10828,9 @@
       <c r="F368" t="s">
         <v>11</v>
       </c>
-      <c r="G368" t="s">
-        <v>24</v>
-      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11671,13 +10850,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>384</v>
-      </c>
-      <c r="G369" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11699,11 +10876,9 @@
       <c r="F370" t="s">
         <v>11</v>
       </c>
-      <c r="G370" t="s">
-        <v>24</v>
-      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11723,13 +10898,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>384</v>
-      </c>
-      <c r="G371" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11751,11 +10924,9 @@
       <c r="F372" t="s">
         <v>11</v>
       </c>
-      <c r="G372" t="s">
-        <v>24</v>
-      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11775,13 +10946,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>384</v>
-      </c>
-      <c r="G373" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11803,11 +10972,9 @@
       <c r="F374" t="s">
         <v>11</v>
       </c>
-      <c r="G374" t="s">
-        <v>24</v>
-      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11827,13 +10994,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>384</v>
-      </c>
-      <c r="G375" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11855,11 +11020,9 @@
       <c r="F376" t="s">
         <v>11</v>
       </c>
-      <c r="G376" t="s">
-        <v>24</v>
-      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11879,13 +11042,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>384</v>
-      </c>
-      <c r="G377" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11907,11 +11068,9 @@
       <c r="F378" t="s">
         <v>11</v>
       </c>
-      <c r="G378" t="s">
-        <v>24</v>
-      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11931,13 +11090,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>384</v>
-      </c>
-      <c r="G379" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11959,11 +11116,9 @@
       <c r="F380" t="s">
         <v>11</v>
       </c>
-      <c r="G380" t="s">
-        <v>24</v>
-      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11983,13 +11138,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>384</v>
-      </c>
-      <c r="G381" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12011,11 +11164,9 @@
       <c r="F382" t="s">
         <v>11</v>
       </c>
-      <c r="G382" t="s">
-        <v>24</v>
-      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12035,13 +11186,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>384</v>
-      </c>
-      <c r="G383" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12063,11 +11212,9 @@
       <c r="F384" t="s">
         <v>11</v>
       </c>
-      <c r="G384" t="s">
-        <v>24</v>
-      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12087,13 +11234,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>384</v>
-      </c>
-      <c r="G385" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12115,11 +11260,9 @@
       <c r="F386" t="s">
         <v>11</v>
       </c>
-      <c r="G386" t="s">
-        <v>24</v>
-      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12139,13 +11282,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>384</v>
-      </c>
-      <c r="G387" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12167,11 +11308,9 @@
       <c r="F388" t="s">
         <v>11</v>
       </c>
-      <c r="G388" t="s">
-        <v>24</v>
-      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12191,13 +11330,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>384</v>
-      </c>
-      <c r="G389" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12219,11 +11356,9 @@
       <c r="F390" t="s">
         <v>11</v>
       </c>
-      <c r="G390" t="s">
-        <v>24</v>
-      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12243,13 +11378,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>384</v>
-      </c>
-      <c r="G391" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12271,11 +11404,9 @@
       <c r="F392" t="s">
         <v>11</v>
       </c>
-      <c r="G392" t="s">
-        <v>24</v>
-      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12297,11 +11428,9 @@
       <c r="F393" t="s">
         <v>11</v>
       </c>
-      <c r="G393" t="s">
-        <v>12</v>
-      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12323,11 +11452,9 @@
       <c r="F394" t="s">
         <v>11</v>
       </c>
-      <c r="G394" t="s">
-        <v>24</v>
-      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12347,13 +11474,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>384</v>
-      </c>
-      <c r="G395" t="s">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12375,11 +11500,9 @@
       <c r="F396" t="s">
         <v>11</v>
       </c>
-      <c r="G396" t="s">
-        <v>24</v>
-      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12401,11 +11524,9 @@
       <c r="F397" t="s">
         <v>11</v>
       </c>
-      <c r="G397" t="s">
-        <v>12</v>
-      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12425,13 +11546,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>432</v>
-      </c>
-      <c r="G398" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12453,11 +11572,9 @@
       <c r="F399" t="s">
         <v>11</v>
       </c>
-      <c r="G399" t="s">
-        <v>24</v>
-      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12477,13 +11594,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>432</v>
-      </c>
-      <c r="G400" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12505,11 +11620,9 @@
       <c r="F401" t="s">
         <v>11</v>
       </c>
-      <c r="G401" t="s">
-        <v>24</v>
-      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12529,13 +11642,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>432</v>
-      </c>
-      <c r="G402" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12557,11 +11668,9 @@
       <c r="F403" t="s">
         <v>11</v>
       </c>
-      <c r="G403" t="s">
-        <v>24</v>
-      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12581,13 +11690,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>432</v>
-      </c>
-      <c r="G404" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12609,11 +11716,9 @@
       <c r="F405" t="s">
         <v>11</v>
       </c>
-      <c r="G405" t="s">
-        <v>24</v>
-      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12633,13 +11738,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>432</v>
-      </c>
-      <c r="G406" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12661,11 +11764,9 @@
       <c r="F407" t="s">
         <v>11</v>
       </c>
-      <c r="G407" t="s">
-        <v>24</v>
-      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12685,13 +11786,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>432</v>
-      </c>
-      <c r="G408" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12713,11 +11812,9 @@
       <c r="F409" t="s">
         <v>11</v>
       </c>
-      <c r="G409" t="s">
-        <v>24</v>
-      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12737,13 +11834,11 @@
         <v>10</v>
       </c>
       <c r="F410" t="s">
-        <v>432</v>
-      </c>
-      <c r="G410" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12765,11 +11860,9 @@
       <c r="F411" t="s">
         <v>11</v>
       </c>
-      <c r="G411" t="s">
-        <v>24</v>
-      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12789,13 +11882,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>432</v>
-      </c>
-      <c r="G412" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12817,11 +11908,9 @@
       <c r="F413" t="s">
         <v>11</v>
       </c>
-      <c r="G413" t="s">
-        <v>24</v>
-      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12841,13 +11930,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>432</v>
-      </c>
-      <c r="G414" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12869,11 +11956,9 @@
       <c r="F415" t="s">
         <v>11</v>
       </c>
-      <c r="G415" t="s">
-        <v>24</v>
-      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12893,13 +11978,11 @@
         <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>432</v>
-      </c>
-      <c r="G416" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12921,11 +12004,9 @@
       <c r="F417" t="s">
         <v>11</v>
       </c>
-      <c r="G417" t="s">
-        <v>24</v>
-      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12945,13 +12026,11 @@
         <v>10</v>
       </c>
       <c r="F418" t="s">
-        <v>432</v>
-      </c>
-      <c r="G418" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12973,11 +12052,9 @@
       <c r="F419" t="s">
         <v>11</v>
       </c>
-      <c r="G419" t="s">
-        <v>24</v>
-      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12997,13 +12074,11 @@
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>432</v>
-      </c>
-      <c r="G420" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13025,11 +12100,9 @@
       <c r="F421" t="s">
         <v>11</v>
       </c>
-      <c r="G421" t="s">
-        <v>24</v>
-      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13049,13 +12122,11 @@
         <v>10</v>
       </c>
       <c r="F422" t="s">
-        <v>432</v>
-      </c>
-      <c r="G422" t="s">
+        <v>411</v>
+      </c>
+      <c r="G422" t="s"/>
+      <c r="H422" t="s">
         <v>433</v>
-      </c>
-      <c r="H422" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13077,11 +12148,9 @@
       <c r="F423" t="s">
         <v>11</v>
       </c>
-      <c r="G423" t="s">
-        <v>24</v>
-      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13101,13 +12170,11 @@
         <v>10</v>
       </c>
       <c r="F424" t="s">
-        <v>432</v>
-      </c>
-      <c r="G424" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13129,11 +12196,9 @@
       <c r="F425" t="s">
         <v>11</v>
       </c>
-      <c r="G425" t="s">
-        <v>24</v>
-      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13153,13 +12218,11 @@
         <v>10</v>
       </c>
       <c r="F426" t="s">
-        <v>432</v>
-      </c>
-      <c r="G426" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13181,11 +12244,9 @@
       <c r="F427" t="s">
         <v>11</v>
       </c>
-      <c r="G427" t="s">
-        <v>24</v>
-      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13205,13 +12266,11 @@
         <v>10</v>
       </c>
       <c r="F428" t="s">
-        <v>432</v>
-      </c>
-      <c r="G428" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13233,11 +12292,9 @@
       <c r="F429" t="s">
         <v>11</v>
       </c>
-      <c r="G429" t="s">
-        <v>24</v>
-      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13257,13 +12314,11 @@
         <v>10</v>
       </c>
       <c r="F430" t="s">
-        <v>432</v>
-      </c>
-      <c r="G430" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13285,11 +12340,9 @@
       <c r="F431" t="s">
         <v>11</v>
       </c>
-      <c r="G431" t="s">
-        <v>24</v>
-      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13309,13 +12362,11 @@
         <v>10</v>
       </c>
       <c r="F432" t="s">
-        <v>432</v>
-      </c>
-      <c r="G432" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13337,11 +12388,9 @@
       <c r="F433" t="s">
         <v>11</v>
       </c>
-      <c r="G433" t="s">
-        <v>24</v>
-      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13361,13 +12410,11 @@
         <v>10</v>
       </c>
       <c r="F434" t="s">
-        <v>432</v>
-      </c>
-      <c r="G434" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13389,11 +12436,9 @@
       <c r="F435" t="s">
         <v>11</v>
       </c>
-      <c r="G435" t="s">
-        <v>24</v>
-      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13413,13 +12458,11 @@
         <v>10</v>
       </c>
       <c r="F436" t="s">
-        <v>432</v>
-      </c>
-      <c r="G436" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G436" t="s"/>
       <c r="H436" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13441,11 +12484,9 @@
       <c r="F437" t="s">
         <v>11</v>
       </c>
-      <c r="G437" t="s">
-        <v>24</v>
-      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13465,13 +12506,11 @@
         <v>10</v>
       </c>
       <c r="F438" t="s">
-        <v>432</v>
-      </c>
-      <c r="G438" t="s">
-        <v>433</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13493,11 +12532,9 @@
       <c r="F439" t="s">
         <v>11</v>
       </c>
-      <c r="G439" t="s">
-        <v>12</v>
-      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13517,13 +12554,11 @@
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>473</v>
-      </c>
-      <c r="G440" t="s">
-        <v>474</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13545,11 +12580,9 @@
       <c r="F441" t="s">
         <v>11</v>
       </c>
-      <c r="G441" t="s">
-        <v>24</v>
-      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13569,13 +12602,11 @@
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>473</v>
-      </c>
-      <c r="G442" t="s">
-        <v>474</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13597,11 +12628,9 @@
       <c r="F443" t="s">
         <v>11</v>
       </c>
-      <c r="G443" t="s">
-        <v>24</v>
-      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13621,13 +12650,11 @@
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>473</v>
-      </c>
-      <c r="G444" t="s">
-        <v>474</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13649,11 +12676,9 @@
       <c r="F445" t="s">
         <v>11</v>
       </c>
-      <c r="G445" t="s">
-        <v>24</v>
-      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13673,13 +12698,11 @@
         <v>10</v>
       </c>
       <c r="F446" t="s">
-        <v>473</v>
-      </c>
-      <c r="G446" t="s">
-        <v>474</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="G446" t="s"/>
       <c r="H446" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13701,11 +12724,9 @@
       <c r="F447" t="s">
         <v>11</v>
       </c>
-      <c r="G447" t="s">
-        <v>12</v>
-      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13727,11 +12748,9 @@
       <c r="F448" t="s">
         <v>11</v>
       </c>
-      <c r="G448" t="s">
-        <v>24</v>
-      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13753,11 +12772,9 @@
       <c r="F449" t="s">
         <v>11</v>
       </c>
-      <c r="G449" t="s">
-        <v>24</v>
-      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13779,11 +12796,9 @@
       <c r="F450" t="s">
         <v>11</v>
       </c>
-      <c r="G450" t="s">
-        <v>12</v>
-      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13803,13 +12818,11 @@
         <v>10</v>
       </c>
       <c r="F451" t="s">
-        <v>222</v>
-      </c>
-      <c r="G451" t="s">
-        <v>223</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13831,11 +12844,9 @@
       <c r="F452" t="s">
         <v>11</v>
       </c>
-      <c r="G452" t="s">
-        <v>12</v>
-      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13857,11 +12868,9 @@
       <c r="F453" t="s">
         <v>11</v>
       </c>
-      <c r="G453" t="s">
-        <v>488</v>
-      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13883,11 +12892,9 @@
       <c r="F454" t="s">
         <v>11</v>
       </c>
-      <c r="G454" t="s">
-        <v>12</v>
-      </c>
+      <c r="G454" t="s"/>
       <c r="H454" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13909,11 +12916,9 @@
       <c r="F455" t="s">
         <v>11</v>
       </c>
-      <c r="G455" t="s">
-        <v>491</v>
-      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13935,11 +12940,9 @@
       <c r="F456" t="s">
         <v>11</v>
       </c>
-      <c r="G456" t="s">
-        <v>12</v>
-      </c>
+      <c r="G456" t="s"/>
       <c r="H456" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13961,11 +12964,9 @@
       <c r="F457" t="s">
         <v>11</v>
       </c>
-      <c r="G457" t="s">
-        <v>494</v>
-      </c>
+      <c r="G457" t="s"/>
       <c r="H457" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13987,11 +12988,9 @@
       <c r="F458" t="s">
         <v>11</v>
       </c>
-      <c r="G458" t="s">
-        <v>12</v>
-      </c>
+      <c r="G458" t="s"/>
       <c r="H458" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14013,11 +13012,9 @@
       <c r="F459" t="s">
         <v>11</v>
       </c>
-      <c r="G459" t="s">
-        <v>494</v>
-      </c>
+      <c r="G459" t="s"/>
       <c r="H459" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14039,11 +13036,9 @@
       <c r="F460" t="s">
         <v>11</v>
       </c>
-      <c r="G460" t="s">
-        <v>12</v>
-      </c>
+      <c r="G460" t="s"/>
       <c r="H460" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14065,11 +13060,9 @@
       <c r="F461" t="s">
         <v>11</v>
       </c>
-      <c r="G461" t="s">
-        <v>494</v>
-      </c>
+      <c r="G461" t="s"/>
       <c r="H461" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14091,11 +13084,9 @@
       <c r="F462" t="s">
         <v>11</v>
       </c>
-      <c r="G462" t="s">
-        <v>12</v>
-      </c>
+      <c r="G462" t="s"/>
       <c r="H462" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14117,11 +13108,9 @@
       <c r="F463" t="s">
         <v>11</v>
       </c>
-      <c r="G463" t="s">
-        <v>494</v>
-      </c>
+      <c r="G463" t="s"/>
       <c r="H463" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14143,11 +13132,9 @@
       <c r="F464" t="s">
         <v>11</v>
       </c>
-      <c r="G464" t="s">
-        <v>12</v>
-      </c>
+      <c r="G464" t="s"/>
       <c r="H464" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14169,11 +13156,9 @@
       <c r="F465" t="s">
         <v>11</v>
       </c>
-      <c r="G465" t="s">
-        <v>494</v>
-      </c>
+      <c r="G465" t="s"/>
       <c r="H465" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14195,11 +13180,9 @@
       <c r="F466" t="s">
         <v>11</v>
       </c>
-      <c r="G466" t="s">
-        <v>12</v>
-      </c>
+      <c r="G466" t="s"/>
       <c r="H466" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14221,11 +13204,9 @@
       <c r="F467" t="s">
         <v>11</v>
       </c>
-      <c r="G467" t="s">
-        <v>494</v>
-      </c>
+      <c r="G467" t="s"/>
       <c r="H467" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14247,11 +13228,9 @@
       <c r="F468" t="s">
         <v>11</v>
       </c>
-      <c r="G468" t="s">
-        <v>12</v>
-      </c>
+      <c r="G468" t="s"/>
       <c r="H468" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14273,11 +13252,9 @@
       <c r="F469" t="s">
         <v>11</v>
       </c>
-      <c r="G469" t="s">
-        <v>507</v>
-      </c>
+      <c r="G469" t="s"/>
       <c r="H469" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14299,11 +13276,9 @@
       <c r="F470" t="s">
         <v>11</v>
       </c>
-      <c r="G470" t="s">
-        <v>12</v>
-      </c>
+      <c r="G470" t="s"/>
       <c r="H470" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14325,11 +13300,9 @@
       <c r="F471" t="s">
         <v>11</v>
       </c>
-      <c r="G471" t="s">
-        <v>507</v>
-      </c>
+      <c r="G471" t="s"/>
       <c r="H471" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14351,11 +13324,9 @@
       <c r="F472" t="s">
         <v>11</v>
       </c>
-      <c r="G472" t="s">
-        <v>12</v>
-      </c>
+      <c r="G472" t="s"/>
       <c r="H472" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14377,11 +13348,9 @@
       <c r="F473" t="s">
         <v>11</v>
       </c>
-      <c r="G473" t="s">
-        <v>507</v>
-      </c>
+      <c r="G473" t="s"/>
       <c r="H473" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14403,11 +13372,9 @@
       <c r="F474" t="s">
         <v>11</v>
       </c>
-      <c r="G474" t="s">
-        <v>12</v>
-      </c>
+      <c r="G474" t="s"/>
       <c r="H474" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14429,11 +13396,9 @@
       <c r="F475" t="s">
         <v>11</v>
       </c>
-      <c r="G475" t="s">
-        <v>514</v>
-      </c>
+      <c r="G475" t="s"/>
       <c r="H475" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14455,11 +13420,9 @@
       <c r="F476" t="s">
         <v>11</v>
       </c>
-      <c r="G476" t="s">
-        <v>12</v>
-      </c>
+      <c r="G476" t="s"/>
       <c r="H476" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14481,11 +13444,9 @@
       <c r="F477" t="s">
         <v>11</v>
       </c>
-      <c r="G477" t="s">
-        <v>517</v>
-      </c>
+      <c r="G477" t="s"/>
       <c r="H477" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14507,11 +13468,9 @@
       <c r="F478" t="s">
         <v>11</v>
       </c>
-      <c r="G478" t="s">
-        <v>12</v>
-      </c>
+      <c r="G478" t="s"/>
       <c r="H478" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14533,11 +13492,9 @@
       <c r="F479" t="s">
         <v>11</v>
       </c>
-      <c r="G479" t="s">
-        <v>488</v>
-      </c>
+      <c r="G479" t="s"/>
       <c r="H479" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14559,11 +13516,9 @@
       <c r="F480" t="s">
         <v>11</v>
       </c>
-      <c r="G480" t="s">
-        <v>12</v>
-      </c>
+      <c r="G480" t="s"/>
       <c r="H480" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14585,11 +13540,9 @@
       <c r="F481" t="s">
         <v>11</v>
       </c>
-      <c r="G481" t="s">
-        <v>488</v>
-      </c>
+      <c r="G481" t="s"/>
       <c r="H481" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14611,11 +13564,9 @@
       <c r="F482" t="s">
         <v>11</v>
       </c>
-      <c r="G482" t="s">
-        <v>12</v>
-      </c>
+      <c r="G482" t="s"/>
       <c r="H482" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14637,11 +13588,9 @@
       <c r="F483" t="s">
         <v>11</v>
       </c>
-      <c r="G483" t="s">
-        <v>488</v>
-      </c>
+      <c r="G483" t="s"/>
       <c r="H483" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14663,11 +13612,9 @@
       <c r="F484" t="s">
         <v>11</v>
       </c>
-      <c r="G484" t="s">
-        <v>12</v>
-      </c>
+      <c r="G484" t="s"/>
       <c r="H484" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14689,11 +13636,9 @@
       <c r="F485" t="s">
         <v>11</v>
       </c>
-      <c r="G485" t="s">
-        <v>488</v>
-      </c>
+      <c r="G485" t="s"/>
       <c r="H485" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14715,11 +13660,9 @@
       <c r="F486" t="s">
         <v>11</v>
       </c>
-      <c r="G486" t="s">
-        <v>12</v>
-      </c>
+      <c r="G486" t="s"/>
       <c r="H486" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14741,11 +13684,9 @@
       <c r="F487" t="s">
         <v>11</v>
       </c>
-      <c r="G487" t="s">
-        <v>488</v>
-      </c>
+      <c r="G487" t="s"/>
       <c r="H487" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14767,11 +13708,9 @@
       <c r="F488" t="s">
         <v>11</v>
       </c>
-      <c r="G488" t="s">
-        <v>12</v>
-      </c>
+      <c r="G488" t="s"/>
       <c r="H488" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14793,11 +13732,9 @@
       <c r="F489" t="s">
         <v>11</v>
       </c>
-      <c r="G489" t="s">
-        <v>488</v>
-      </c>
+      <c r="G489" t="s"/>
       <c r="H489" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14819,11 +13756,9 @@
       <c r="F490" t="s">
         <v>11</v>
       </c>
-      <c r="G490" t="s">
-        <v>12</v>
-      </c>
+      <c r="G490" t="s"/>
       <c r="H490" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14845,11 +13780,9 @@
       <c r="F491" t="s">
         <v>11</v>
       </c>
-      <c r="G491" t="s">
-        <v>488</v>
-      </c>
+      <c r="G491" t="s"/>
       <c r="H491" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14871,11 +13804,9 @@
       <c r="F492" t="s">
         <v>11</v>
       </c>
-      <c r="G492" t="s">
-        <v>12</v>
-      </c>
+      <c r="G492" t="s"/>
       <c r="H492" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14897,11 +13828,9 @@
       <c r="F493" t="s">
         <v>11</v>
       </c>
-      <c r="G493" t="s">
-        <v>488</v>
-      </c>
+      <c r="G493" t="s"/>
       <c r="H493" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14923,11 +13852,9 @@
       <c r="F494" t="s">
         <v>11</v>
       </c>
-      <c r="G494" t="s">
-        <v>12</v>
-      </c>
+      <c r="G494" t="s"/>
       <c r="H494" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14949,11 +13876,9 @@
       <c r="F495" t="s">
         <v>11</v>
       </c>
-      <c r="G495" t="s">
-        <v>514</v>
-      </c>
+      <c r="G495" t="s"/>
       <c r="H495" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14975,11 +13900,9 @@
       <c r="F496" t="s">
         <v>11</v>
       </c>
-      <c r="G496" t="s">
-        <v>12</v>
-      </c>
+      <c r="G496" t="s"/>
       <c r="H496" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14999,13 +13922,11 @@
         <v>10</v>
       </c>
       <c r="F497" t="s">
-        <v>106</v>
-      </c>
-      <c r="G497" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G497" t="s"/>
       <c r="H497" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15027,11 +13948,9 @@
       <c r="F498" t="s">
         <v>11</v>
       </c>
-      <c r="G498" t="s">
-        <v>491</v>
-      </c>
+      <c r="G498" t="s"/>
       <c r="H498" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15051,13 +13970,11 @@
         <v>10</v>
       </c>
       <c r="F499" t="s">
-        <v>106</v>
-      </c>
-      <c r="G499" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G499" t="s"/>
       <c r="H499" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15079,11 +13996,9 @@
       <c r="F500" t="s">
         <v>11</v>
       </c>
-      <c r="G500" t="s">
-        <v>491</v>
-      </c>
+      <c r="G500" t="s"/>
       <c r="H500" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15103,13 +14018,11 @@
         <v>10</v>
       </c>
       <c r="F501" t="s">
-        <v>106</v>
-      </c>
-      <c r="G501" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G501" t="s"/>
       <c r="H501" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15131,11 +14044,9 @@
       <c r="F502" t="s">
         <v>11</v>
       </c>
-      <c r="G502" t="s">
-        <v>12</v>
-      </c>
+      <c r="G502" t="s"/>
       <c r="H502" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15155,13 +14066,11 @@
         <v>10</v>
       </c>
       <c r="F503" t="s">
-        <v>20</v>
-      </c>
-      <c r="G503" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G503" t="s"/>
       <c r="H503" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15183,11 +14092,9 @@
       <c r="F504" t="s">
         <v>11</v>
       </c>
-      <c r="G504" t="s">
-        <v>514</v>
-      </c>
+      <c r="G504" t="s"/>
       <c r="H504" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15207,13 +14114,11 @@
         <v>10</v>
       </c>
       <c r="F505" t="s">
-        <v>20</v>
-      </c>
-      <c r="G505" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G505" t="s"/>
       <c r="H505" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15235,11 +14140,9 @@
       <c r="F506" t="s">
         <v>11</v>
       </c>
-      <c r="G506" t="s">
-        <v>514</v>
-      </c>
+      <c r="G506" t="s"/>
       <c r="H506" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15259,13 +14162,11 @@
         <v>10</v>
       </c>
       <c r="F507" t="s">
-        <v>20</v>
-      </c>
-      <c r="G507" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G507" t="s"/>
       <c r="H507" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15287,11 +14188,9 @@
       <c r="F508" t="s">
         <v>11</v>
       </c>
-      <c r="G508" t="s">
-        <v>12</v>
-      </c>
+      <c r="G508" t="s"/>
       <c r="H508" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15311,13 +14210,11 @@
         <v>10</v>
       </c>
       <c r="F509" t="s">
-        <v>222</v>
-      </c>
-      <c r="G509" t="s">
-        <v>223</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G509" t="s"/>
       <c r="H509" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15339,11 +14236,9 @@
       <c r="F510" t="s">
         <v>11</v>
       </c>
-      <c r="G510" t="s">
-        <v>494</v>
-      </c>
+      <c r="G510" t="s"/>
       <c r="H510" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15363,13 +14258,11 @@
         <v>10</v>
       </c>
       <c r="F511" t="s">
-        <v>222</v>
-      </c>
-      <c r="G511" t="s">
-        <v>223</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G511" t="s"/>
       <c r="H511" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15391,11 +14284,9 @@
       <c r="F512" t="s">
         <v>11</v>
       </c>
-      <c r="G512" t="s">
-        <v>12</v>
-      </c>
+      <c r="G512" t="s"/>
       <c r="H512" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15415,13 +14306,11 @@
         <v>10</v>
       </c>
       <c r="F513" t="s">
-        <v>120</v>
-      </c>
-      <c r="G513" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G513" t="s"/>
       <c r="H513" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15443,11 +14332,9 @@
       <c r="F514" t="s">
         <v>11</v>
       </c>
-      <c r="G514" t="s">
-        <v>514</v>
-      </c>
+      <c r="G514" t="s"/>
       <c r="H514" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15467,13 +14354,11 @@
         <v>10</v>
       </c>
       <c r="F515" t="s">
-        <v>120</v>
-      </c>
-      <c r="G515" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G515" t="s"/>
       <c r="H515" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15495,11 +14380,9 @@
       <c r="F516" t="s">
         <v>11</v>
       </c>
-      <c r="G516" t="s">
-        <v>514</v>
-      </c>
+      <c r="G516" t="s"/>
       <c r="H516" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15519,13 +14402,11 @@
         <v>10</v>
       </c>
       <c r="F517" t="s">
-        <v>120</v>
-      </c>
-      <c r="G517" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G517" t="s"/>
       <c r="H517" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15547,11 +14428,9 @@
       <c r="F518" t="s">
         <v>11</v>
       </c>
-      <c r="G518" t="s">
-        <v>12</v>
-      </c>
+      <c r="G518" t="s"/>
       <c r="H518" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15571,13 +14450,11 @@
         <v>10</v>
       </c>
       <c r="F519" t="s">
-        <v>120</v>
-      </c>
-      <c r="G519" t="s">
-        <v>121</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G519" t="s"/>
       <c r="H519" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15599,11 +14476,9 @@
       <c r="F520" t="s">
         <v>11</v>
       </c>
-      <c r="G520" t="s">
-        <v>12</v>
-      </c>
+      <c r="G520" t="s"/>
       <c r="H520" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15623,13 +14498,11 @@
         <v>10</v>
       </c>
       <c r="F521" t="s">
-        <v>311</v>
-      </c>
-      <c r="G521" t="s">
-        <v>312</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G521" t="s"/>
       <c r="H521" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15651,11 +14524,9 @@
       <c r="F522" t="s">
         <v>11</v>
       </c>
-      <c r="G522" t="s">
-        <v>491</v>
-      </c>
+      <c r="G522" t="s"/>
       <c r="H522" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15675,13 +14546,11 @@
         <v>10</v>
       </c>
       <c r="F523" t="s">
-        <v>311</v>
-      </c>
-      <c r="G523" t="s">
-        <v>312</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G523" t="s"/>
       <c r="H523" t="s">
-        <v>563</v>
+        <v>534</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15703,11 +14572,9 @@
       <c r="F524" t="s">
         <v>11</v>
       </c>
-      <c r="G524" t="s">
-        <v>491</v>
-      </c>
+      <c r="G524" t="s"/>
       <c r="H524" t="s">
-        <v>564</v>
+        <v>535</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15727,13 +14594,11 @@
         <v>10</v>
       </c>
       <c r="F525" t="s">
-        <v>311</v>
-      </c>
-      <c r="G525" t="s">
-        <v>312</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G525" t="s"/>
       <c r="H525" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15755,11 +14620,9 @@
       <c r="F526" t="s">
         <v>11</v>
       </c>
-      <c r="G526" t="s">
-        <v>491</v>
-      </c>
+      <c r="G526" t="s"/>
       <c r="H526" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15779,13 +14642,11 @@
         <v>10</v>
       </c>
       <c r="F527" t="s">
-        <v>311</v>
-      </c>
-      <c r="G527" t="s">
-        <v>312</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G527" t="s"/>
       <c r="H527" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15807,11 +14668,9 @@
       <c r="F528" t="s">
         <v>11</v>
       </c>
-      <c r="G528" t="s">
-        <v>491</v>
-      </c>
+      <c r="G528" t="s"/>
       <c r="H528" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15831,13 +14690,11 @@
         <v>10</v>
       </c>
       <c r="F529" t="s">
-        <v>311</v>
-      </c>
-      <c r="G529" t="s">
-        <v>312</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G529" t="s"/>
       <c r="H529" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15859,11 +14716,9 @@
       <c r="F530" t="s">
         <v>11</v>
       </c>
-      <c r="G530" t="s">
-        <v>12</v>
-      </c>
+      <c r="G530" t="s"/>
       <c r="H530" t="s">
-        <v>570</v>
+        <v>541</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15885,11 +14740,9 @@
       <c r="F531" t="s">
         <v>11</v>
       </c>
-      <c r="G531" t="s">
-        <v>12</v>
-      </c>
+      <c r="G531" t="s"/>
       <c r="H531" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15911,11 +14764,9 @@
       <c r="F532" t="s">
         <v>11</v>
       </c>
-      <c r="G532" t="s">
-        <v>12</v>
-      </c>
+      <c r="G532" t="s"/>
       <c r="H532" t="s">
-        <v>572</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
